--- a/文档/数据库/tb_teacher.xlsx
+++ b/文档/数据库/tb_teacher.xlsx
@@ -10,6 +10,38 @@
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>teacher_id</t>
+  </si>
+  <si>
+    <t>school_id</t>
+  </si>
+  <si>
+    <t>teacher_name</t>
+  </si>
+  <si>
+    <t>profile_picture</t>
+  </si>
+  <si>
+    <t>teacher_introduction</t>
+  </si>
+  <si>
+    <t>teaching_age</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>college_id</t>
+  </si>
+  <si>
+    <t>professional_id</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,8 +83,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/文档/数据库/tb_teacher.xlsx
+++ b/文档/数据库/tb_teacher.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>teacher_id</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>professional_id</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>operator</t>
   </si>
 </sst>
 </file>
@@ -83,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -114,6 +123,15 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
